--- a/championship_and_SB_data_complete.xlsx
+++ b/championship_and_SB_data_complete.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ffddeaeea2f5829/Desktop/Bootcamp/Project 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ffddeaeea2f5829/Desktop/Bootcamp/Project_1/Tom_Brady_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1513" documentId="13_ncr:40009_{96E07E0A-E602-4821-9860-C16FD42508E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3AF12876-F0AA-4028-A3C2-A5616B6148AF}"/>
+  <xr:revisionPtr revIDLastSave="1531" documentId="13_ncr:40009_{96E07E0A-E602-4821-9860-C16FD42508E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9EE4BBB7-A3D3-487C-A093-696C3722BA1C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,8 +605,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,6 +817,12 @@
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDCD7"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -993,7 +1012,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1011,25 +1030,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1076,33 +1097,6 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="0.79998168889431442"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1438,6 +1432,33 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1572,6 +1593,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDDCD7"/>
       <color rgb="FFF3F75F"/>
     </mruColors>
   </colors>
@@ -20941,29 +20963,29 @@
     <tableColumn id="1" xr3:uid="{44750268-F995-4A95-88EC-F967B7B33857}" name="Result"/>
     <tableColumn id="3" xr3:uid="{A1E717FA-EFC8-4B1D-A93C-4DE9EE09885D}" name="Passing Yards" dataDxfId="17"/>
     <tableColumn id="7" xr3:uid="{8D295268-38B8-4E1D-BC49-9D65D0F43D24}" name="Passer Rating" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{384A104C-C515-43D7-BE79-6D3584881931}" name="Interceptions" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{6B87576B-11BA-4816-9AFC-487EB8D3AF44}" name="Rushing Yards" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{99596FAF-4E7D-4CC3-BCB6-CCED082648EE}" name="Rushing TDs" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{D1D45517-5016-4483-8DB2-D622DC2DC0A2}" name="Defensive Rating" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{FA58BA8C-E748-4E42-A0F9-5D66788AEC27}" name="Offensive Rating" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{10E204C5-0683-4A6B-AA7A-28564EC74B2D}" name="Pro Bowlers" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{384A104C-C515-43D7-BE79-6D3584881931}" name="Interceptions" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{6B87576B-11BA-4816-9AFC-487EB8D3AF44}" name="Rushing Yards" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{99596FAF-4E7D-4CC3-BCB6-CCED082648EE}" name="Rushing TDs" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D1D45517-5016-4483-8DB2-D622DC2DC0A2}" name="Defensive Rating" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FA58BA8C-E748-4E42-A0F9-5D66788AEC27}" name="Offensive Rating" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{10E204C5-0683-4A6B-AA7A-28564EC74B2D}" name="Pro Bowlers" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94DD2795-C34E-4F57-8141-A7099B20BADF}" name="Table1" displayName="Table1" ref="J1:Q6" totalsRowShown="0" dataDxfId="1" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94DD2795-C34E-4F57-8141-A7099B20BADF}" name="Table1" displayName="Table1" ref="J1:Q6" totalsRowShown="0" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="J1:Q6" xr:uid="{FFF79FD9-70F9-40E0-857F-63E2BD09E40B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C690AB1D-EBD6-4901-97A1-6E9650B27F34}" name="Result" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{828DAEFF-3F41-4B38-9EE2-B7D4D6D089FF}" name="Passing Yards" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F5CA583E-4258-4FED-942E-8BF420327D3F}" name="Passer Rating" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A16996F7-E61A-429F-A5D7-27740785D932}" name="Rushing Touchdowns" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A44BCF8A-87EE-4B03-B8D9-C151EB0CDFB0}" name="Rushing Yards" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B018DAF4-31F0-40B0-B421-899489047B9A}" name="Interceptions" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C618E773-A883-478F-BBC3-5B36448B40B6}" name="Turnovers" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{D8DA0790-B4E1-4EAC-84A1-AE2131486568}" name="Pro Bowlers" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C690AB1D-EBD6-4901-97A1-6E9650B27F34}" name="Result" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{828DAEFF-3F41-4B38-9EE2-B7D4D6D089FF}" name="Passing Yards" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F5CA583E-4258-4FED-942E-8BF420327D3F}" name="Passer Rating" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A16996F7-E61A-429F-A5D7-27740785D932}" name="Rushing Touchdowns" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{A44BCF8A-87EE-4B03-B8D9-C151EB0CDFB0}" name="Rushing Yards" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{B018DAF4-31F0-40B0-B421-899489047B9A}" name="Interceptions" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C618E773-A883-478F-BBC3-5B36448B40B6}" name="Turnovers" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{D8DA0790-B4E1-4EAC-84A1-AE2131486568}" name="Pro Bowlers" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -26237,72 +26259,72 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>2001</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>337</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>7</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>78.3</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>90</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
+    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>2003</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>295</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>113.6</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>92</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+    <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>2004</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>324</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>10</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>0</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>75.400000000000006</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>45</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>3</v>
       </c>
     </row>
@@ -26352,49 +26374,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
         <v>2014</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>234</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>5</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>110.6</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>162</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
         <v>2016</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>240</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>144.1</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>104</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <v>0</v>
       </c>
     </row>
@@ -26421,26 +26443,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13">
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>2018</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>198</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>4</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>0</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>57.9</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>62</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>1</v>
       </c>
     </row>
@@ -26646,7 +26668,7 @@
       <c r="B16" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="14"/>
       <c r="D16">
         <f>6/7</f>
         <v>0.8571428571428571</v>
@@ -26688,55 +26710,56 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="3" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7265625" customWidth="1"/>
     <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="10" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" customWidth="1"/>
     <col min="15" max="15" width="14.453125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="17" max="17" width="13.36328125" customWidth="1"/>
     <col min="18" max="18" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="24" t="s">
         <v>101</v>
       </c>
       <c r="J1" t="s">
@@ -26765,313 +26788,313 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="26">
         <v>260.36363636363637</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="26">
         <v>86.954545454545439</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="26">
         <v>1.2727272727272727</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="26">
         <v>102.36363636363636</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="26">
         <v>1.4545454545454546</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="26">
         <v>8.1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="26">
         <v>4.2222222222222223</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="26">
         <v>4.7272727272727275</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="21">
         <v>287</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="21">
         <v>93.866666666666674</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="21">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="21">
         <v>114.5</v>
       </c>
-      <c r="O2" s="19">
+      <c r="O2" s="21">
         <v>0.83333333333333337</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="21">
         <f>6/7</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="Q2" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="27">
         <v>267.33333333333331</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="27">
         <v>78.566666666666677</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="27">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="26">
         <v>88.333333333333329</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="27">
         <v>7</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="27">
         <v>3.6666666666666665</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="27">
         <v>4.666666666666667</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="16">
         <v>331.66666666666669</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="16">
         <v>95.566666666666663</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="16">
         <v>80.333333333333329</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="16">
         <v>0.33333333333333331</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="16">
         <v>1</v>
       </c>
-      <c r="Q3" s="20">
+      <c r="Q3" s="16">
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="26">
         <v>235.54545454545453</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="26">
         <v>73.963636363636368</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="26">
         <v>1.5454545454545454</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="26">
         <v>89.454545454545453</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="26">
         <v>0.72727272727272729</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="26">
         <v>12.1</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="26">
         <v>6.333333333333333</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="26">
         <v>6.5454545454545459</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="21">
         <v>271.33333333333331</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="21">
         <v>96.649999999999991</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="21">
         <v>92.5</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="21">
         <v>1.1666666666666667</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="21">
         <f>11/7</f>
         <v>1.5714285714285714</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="27">
         <v>321.66666666666669</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="27">
         <v>101.23333333333335</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="27">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="27">
         <v>117.66666666666667</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="27">
         <v>1</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="27">
         <v>19</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="27">
         <v>4.333333333333333</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="27">
         <v>5.333333333333333</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="16">
         <v>301</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="16">
         <v>101.43333333333334</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="16">
         <v>123</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="16">
         <v>0.66666999999999998</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="21" t="s">
+    <row r="6" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="23">
         <v>316</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="23">
         <v>108.2</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="23">
         <v>0.81</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="23">
         <v>112.4</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="23">
         <v>0.375</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="23">
         <f>10/16</f>
         <v>0.625</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
